--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Calcr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,51 +531,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H2">
         <v>0.182466</v>
       </c>
       <c r="I2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09614899999999998</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N2">
-        <v>0.288447</v>
+        <v>2.005324</v>
       </c>
       <c r="O2">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005847974478</v>
+        <v>0.040655938776</v>
       </c>
       <c r="R2">
-        <v>0.052631770302</v>
+        <v>0.365903448984</v>
       </c>
       <c r="S2">
-        <v>0.02959251466263094</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="T2">
-        <v>0.02959251466263094</v>
+        <v>0.1716860072883705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -590,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06082200000000001</v>
+        <v>0.293441</v>
       </c>
       <c r="H3">
-        <v>0.182466</v>
+        <v>0.880323</v>
       </c>
       <c r="I3">
-        <v>0.1419252066466042</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J3">
-        <v>0.1419252066466042</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,152 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.36498</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N3">
-        <v>1.09494</v>
+        <v>2.005324</v>
       </c>
       <c r="O3">
-        <v>0.7914921854838884</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7914921854838886</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02219881356000001</v>
+        <v>0.1961480932946667</v>
       </c>
       <c r="R3">
-        <v>0.19978932204</v>
+        <v>1.765332839652</v>
       </c>
       <c r="S3">
-        <v>0.1123326919839732</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="T3">
-        <v>0.1123326919839732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.3677276666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.103183</v>
-      </c>
-      <c r="I4">
-        <v>0.8580747933533959</v>
-      </c>
-      <c r="J4">
-        <v>0.8580747933533959</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.09614899999999998</v>
-      </c>
-      <c r="N4">
-        <v>0.288447</v>
-      </c>
-      <c r="O4">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="P4">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="Q4">
-        <v>0.03535664742233333</v>
-      </c>
-      <c r="R4">
-        <v>0.318209826801</v>
-      </c>
-      <c r="S4">
-        <v>0.1789152998534806</v>
-      </c>
-      <c r="T4">
-        <v>0.1789152998534806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3677276666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.103183</v>
-      </c>
-      <c r="I5">
-        <v>0.8580747933533959</v>
-      </c>
-      <c r="J5">
-        <v>0.8580747933533959</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.36498</v>
-      </c>
-      <c r="N5">
-        <v>1.09494</v>
-      </c>
-      <c r="O5">
-        <v>0.7914921854838884</v>
-      </c>
-      <c r="P5">
-        <v>0.7914921854838886</v>
-      </c>
-      <c r="Q5">
-        <v>0.13421324378</v>
-      </c>
-      <c r="R5">
-        <v>1.20791919402</v>
-      </c>
-      <c r="S5">
-        <v>0.6791594934999152</v>
-      </c>
-      <c r="T5">
-        <v>0.6791594934999153</v>
+        <v>0.8283139927116295</v>
       </c>
     </row>
   </sheetData>
